--- a/data/trans_dic/POLIPATOLOGIA_DISC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_DISC-Estudios-trans_dic.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 29,85</t>
+          <t>24,22; 30,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,75; 23,5</t>
+          <t>18,05; 24,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 31,84</t>
+          <t>24,54; 31,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,65; 42,82</t>
+          <t>37,52; 42,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,98; 42,26</t>
+          <t>35,9; 42,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,09; 48,5</t>
+          <t>42,87; 48,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 36,62</t>
+          <t>32,58; 36,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,72; 33,35</t>
+          <t>28,95; 33,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,59; 41,37</t>
+          <t>36,49; 40,96</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,37</t>
+          <t>5,08; 7,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,72</t>
+          <t>5,45; 7,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,43</t>
+          <t>8,56; 11,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 13,21</t>
+          <t>9,86; 13,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 15,28</t>
+          <t>12,05; 15,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 19,0</t>
+          <t>14,1; 18,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 9,68</t>
+          <t>7,74; 9,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 10,96</t>
+          <t>9,05; 11,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 14,86</t>
+          <t>12,4; 14,8</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,96</t>
+          <t>2,83; 7,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,41</t>
+          <t>2,52; 6,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,45</t>
+          <t>5,5; 9,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,57</t>
+          <t>4,61; 9,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,22</t>
+          <t>4,09; 8,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 16,55</t>
+          <t>11,67; 16,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,32</t>
+          <t>4,24; 7,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,44</t>
+          <t>3,77; 6,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,46</t>
+          <t>9,12; 12,28</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 13,09</t>
+          <t>10,68; 13,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 10,21</t>
+          <t>8,33; 10,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 13,53</t>
+          <t>11,17; 13,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 23,0</t>
+          <t>20,29; 23,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,04</t>
+          <t>18,18; 21,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,43; 24,2</t>
+          <t>20,64; 24,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 17,74</t>
+          <t>15,93; 17,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 15,38</t>
+          <t>13,69; 15,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 18,88</t>
+          <t>16,84; 18,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGIA_DISC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_DISC-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,22; 30,2</t>
+          <t>24,1; 29,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,03</t>
+          <t>17,75; 23,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,52; 42,93</t>
+          <t>37,52; 43,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,9; 42,73</t>
+          <t>35,92; 42,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,58; 36,51</t>
+          <t>32,62; 36,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,95; 33,54</t>
+          <t>28,94; 33,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,37</t>
+          <t>5,03; 7,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,8</t>
+          <t>5,52; 7,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 13,09</t>
+          <t>9,97; 13,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 15,27</t>
+          <t>12,06; 15,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,72</t>
+          <t>7,74; 9,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 11,0</t>
+          <t>9,01; 11,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,16</t>
+          <t>2,63; 6,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,5</t>
+          <t>2,59; 6,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,24</t>
+          <t>4,91; 9,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,31</t>
+          <t>3,91; 8,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,53</t>
+          <t>4,12; 7,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,51</t>
+          <t>3,66; 6,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,01</t>
+          <t>10,73; 13,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 10,24</t>
+          <t>8,3; 10,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 23,01</t>
+          <t>20,3; 23,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 21,23</t>
+          <t>18,28; 21,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 17,84</t>
+          <t>15,94; 17,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 15,4</t>
+          <t>13,73; 15,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGIA_DISC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_DISC-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,1; 29,85</t>
+          <t>24,24; 29,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,75; 23,39</t>
+          <t>17,75; 23,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,54; 31,35</t>
+          <t>24,49; 31,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,52; 43,26</t>
+          <t>37,65; 42,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,92; 42,5</t>
+          <t>35,98; 42,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,87; 48,78</t>
+          <t>43,09; 48,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,62; 36,68</t>
+          <t>32,54; 36,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,94; 33,54</t>
+          <t>28,72; 33,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,49; 40,96</t>
+          <t>36,59; 41,37</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,3</t>
+          <t>5,03; 7,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,77</t>
+          <t>5,5; 7,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,5</t>
+          <t>8,59; 11,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,97; 13,18</t>
+          <t>10,12; 13,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,21</t>
+          <t>12,04; 15,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,89</t>
+          <t>14,27; 19,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,6</t>
+          <t>7,71; 9,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 11,04</t>
+          <t>8,95; 10,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 14,8</t>
+          <t>12,38; 14,86</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,82</t>
+          <t>2,62; 6,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,06</t>
+          <t>2,58; 6,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,7</t>
+          <t>5,35; 9,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,7</t>
+          <t>4,65; 9,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,38</t>
+          <t>3,9; 8,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,13</t>
+          <t>11,54; 16,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,43</t>
+          <t>4,0; 7,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,45</t>
+          <t>3,66; 6,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,28</t>
+          <t>9,16; 12,46</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,04</t>
+          <t>10,76; 13,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,35</t>
+          <t>8,35; 10,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 13,55</t>
+          <t>11,22; 13,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 23,21</t>
+          <t>20,34; 23,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 21,13</t>
+          <t>18,19; 21,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,64; 24,23</t>
+          <t>20,43; 24,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,94; 17,78</t>
+          <t>15,95; 17,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 15,46</t>
+          <t>13,67; 15,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,87</t>
+          <t>16,71; 18,88</t>
         </is>
       </c>
     </row>
